--- a/output/reports/RS_Trade_List_2025-05-14.xlsx
+++ b/output/reports/RS_Trade_List_2025-05-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1199398947928296</v>
+        <v>0.09878634571625855</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -496,10 +496,94 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>155.31</v>
+        <v>31420</v>
       </c>
       <c r="E3" t="n">
-        <v>146.9812726745353</v>
+        <v>30310.50094277943</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CANBK</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.09384892714955084</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Star</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>105.67</v>
+      </c>
+      <c r="E4" t="n">
+        <v>99.68801497454676</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VEDL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.09346788429191211</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>442.7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>424.1636418476294</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ZEEL</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.09008507586256687</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>123.91</v>
+      </c>
+      <c r="E6" t="n">
+        <v>115.4790594066676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SAIL</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.06747218983161929</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Star</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>122.68</v>
+      </c>
+      <c r="E7" t="n">
+        <v>115.4985685061078</v>
       </c>
     </row>
   </sheetData>
